--- a/doc/Workbook1.xlsx
+++ b/doc/Workbook1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="20760" windowHeight="14660" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24600" windowHeight="14580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
   <si>
     <t>Nombre Pais</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,6 +186,18 @@
   </si>
   <si>
     <t>sin condi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>muerte, no Mismo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acepta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no acepta</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -555,15 +567,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="G1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -580,7 +592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -599,8 +611,26 @@
       <c r="F3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -619,8 +649,26 @@
       <c r="F4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -639,8 +687,26 @@
       <c r="F5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>8</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -659,8 +725,26 @@
       <c r="F6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>7</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -679,8 +763,23 @@
       <c r="F7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -699,8 +798,23 @@
       <c r="F8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -719,8 +833,23 @@
       <c r="F9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -739,8 +868,23 @@
       <c r="F10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>7</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -756,8 +900,23 @@
       <c r="E11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -773,8 +932,23 @@
       <c r="E12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -790,8 +964,23 @@
       <c r="E13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>7</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -807,8 +996,23 @@
       <c r="E14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>7</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -824,8 +1028,23 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -841,8 +1060,23 @@
       <c r="E16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -858,8 +1092,23 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -875,8 +1124,23 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18">
+        <v>6</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -893,7 +1157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -910,7 +1174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -927,7 +1191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -944,7 +1208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -961,7 +1225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -978,7 +1242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -995,7 +1259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1012,7 +1276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1029,7 +1293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1046,7 +1310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1063,7 +1327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1080,7 +1344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1097,7 +1361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>34</v>
       </c>
